--- a/src/test/resources/showcase/artifact/data/web-showcase.data.xlsx
+++ b/src/test/resources/showcase/artifact/data/web-showcase.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11103"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA670219-A0DD-0945-BB9B-5AC30F2410D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2E0035-1FD3-1743-B4F9-D9B019C796B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="10520" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <definedName name="ws">'[1]#system'!$P$2:$P$15</definedName>
     <definedName name="xml">'[1]#system'!$O$2:$O$12</definedName>
   </definedNames>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="63">
   <si>
     <t>true</t>
   </si>
@@ -72,9 +72,6 @@
     <t>,</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>productBrand</t>
   </si>
   <si>
-    <t>Seiko Watches</t>
-  </si>
-  <si>
     <t>productReview</t>
   </si>
   <si>
@@ -153,36 +147,21 @@
     <t>mostExpense.title</t>
   </si>
   <si>
-    <t>SEIKO ProspEx diver scuba titanium solar reverse rotation prevention bezel black SBDN001 men's watch</t>
-  </si>
-  <si>
     <t>mostExpense.startPrice</t>
   </si>
   <si>
-    <t>$10,010</t>
-  </si>
-  <si>
-    <t>1,612</t>
-  </si>
-  <si>
     <t>2000</t>
   </si>
   <si>
     <t>5000</t>
   </si>
   <si>
-    <t>nexial.scope.executionMode</t>
-  </si>
-  <si>
     <t>nexial.scope.fallbackToPrevious</t>
   </si>
   <si>
     <t>nexial.scope.iteration</t>
   </si>
   <si>
-    <t>nexial.scope.mailTo</t>
-  </si>
-  <si>
     <t>nexial.delayBetweenStepsMs</t>
   </si>
   <si>
@@ -247,6 +226,30 @@
   </si>
   <si>
     <t>css=#navBackToTop</t>
+  </si>
+  <si>
+    <t>9555</t>
+  </si>
+  <si>
+    <t>nexial.browser.logChrome</t>
+  </si>
+  <si>
+    <t>nexial.browser.chrome.remote.port</t>
+  </si>
+  <si>
+    <t>SEIKO</t>
+  </si>
+  <si>
+    <t>$5,200</t>
+  </si>
+  <si>
+    <t>Seiko Mens ASTRON GPS Limited Edition Solar Watch, SSE060</t>
+  </si>
+  <si>
+    <t>796</t>
+  </si>
+  <si>
+    <t>nexial.mailTo</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,21 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="50">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -415,6 +432,18 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="4" tint="-0.24994659260841701"/>
       </font>
       <fill>
@@ -453,12 +482,51 @@
     <dxf>
       <font>
         <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -524,136 +592,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1402,10 +1340,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AAA13"/>
+  <dimension ref="A1:AAA14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -1418,85 +1356,87 @@
   <sheetData>
     <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="HA1" s="7"/>
+      <c r="AAA1" s="7"/>
     </row>
     <row r="2" spans="1:703">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HA2" s="7"/>
       <c r="AAA2" s="7"/>
     </row>
     <row r="3" spans="1:703">
-      <c r="A3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
+      <c r="A3" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="HA3" s="7"/>
       <c r="AAA3" s="7"/>
     </row>
     <row r="4" spans="1:703">
-      <c r="A4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="HA4" s="7"/>
-      <c r="AAA4" s="7"/>
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="HA4" s="4"/>
+      <c r="AAA4" s="5"/>
     </row>
     <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
     <row r="6" spans="1:703">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
     <row r="7" spans="1:703">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
     </row>
     <row r="8" spans="1:703">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
     <row r="9" spans="1:703">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
@@ -1506,55 +1446,61 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="HA10" s="4"/>
       <c r="AAA10" s="5"/>
     </row>
     <row r="11" spans="1:703">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="HA11" s="4"/>
-      <c r="AAA11" s="5"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:703">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:703">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:703">
+      <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="54" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="49" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="53" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="48" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="52" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="47" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="51" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="50" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="45" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1566,10 +1512,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AAA11"/>
+  <dimension ref="A1:AAA9"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -1582,133 +1528,115 @@
   <sheetData>
     <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="HA1" s="7"/>
+      <c r="AAA1" s="7"/>
     </row>
     <row r="2" spans="1:703">
-      <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
+      <c r="A2" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="HA2" s="7"/>
       <c r="AAA2" s="7"/>
     </row>
     <row r="3" spans="1:703">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="HA3" s="7"/>
-      <c r="AAA3" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="HA3" s="4"/>
+      <c r="AAA3" s="5"/>
     </row>
     <row r="4" spans="1:703">
-      <c r="A4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="HA4" s="7"/>
-      <c r="AAA4" s="7"/>
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="HA4" s="4"/>
+      <c r="AAA4" s="5"/>
     </row>
     <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
     <row r="6" spans="1:703">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
     <row r="7" spans="1:703">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
     </row>
     <row r="8" spans="1:703">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
     <row r="9" spans="1:703">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
-    </row>
-    <row r="10" spans="1:703">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="HA10" s="4"/>
-      <c r="AAA10" s="5"/>
-    </row>
-    <row r="11" spans="1:703">
-      <c r="A11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="HA11" s="4"/>
-      <c r="AAA11" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="49" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="44" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="48" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="43" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="47" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="42" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="46" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="45" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="40" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1720,10 +1648,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AAA11"/>
+  <dimension ref="A1:AAA9"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -1736,142 +1664,124 @@
   <sheetData>
     <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="HA1" s="7"/>
+      <c r="AAA1" s="7"/>
     </row>
     <row r="2" spans="1:703">
-      <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
+      <c r="A2" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="HA2" s="7"/>
       <c r="AAA2" s="7"/>
     </row>
     <row r="3" spans="1:703">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="HA3" s="4"/>
+      <c r="AAA3" s="5"/>
+    </row>
+    <row r="4" spans="1:703">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="HA3" s="7"/>
-      <c r="AAA3" s="7"/>
-    </row>
-    <row r="4" spans="1:703">
-      <c r="A4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="HA4" s="7"/>
-      <c r="AAA4" s="7"/>
+      <c r="HA4" s="4"/>
+      <c r="AAA4" s="5"/>
     </row>
     <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
     <row r="6" spans="1:703">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
     <row r="7" spans="1:703">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
     </row>
     <row r="8" spans="1:703">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
     <row r="9" spans="1:703">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
-    </row>
-    <row r="10" spans="1:703">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="HA10" s="4"/>
-      <c r="AAA10" s="5"/>
-    </row>
-    <row r="11" spans="1:703">
-      <c r="A11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="HA11" s="4"/>
-      <c r="AAA11" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="44" priority="5" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="39" priority="5" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="43" priority="6" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="38" priority="6" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="42" priority="7" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="37" priority="7" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B9 B11:B1048576">
-    <cfRule type="expression" dxfId="41" priority="8" stopIfTrue="1">
+  <conditionalFormatting sqref="B9:B1048576 B1:B7">
+    <cfRule type="expression" dxfId="36" priority="8" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="40" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="35" priority="9">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="39" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="34" priority="1" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="38" priority="2">
-      <formula>LEN(TRIM(B10))&gt;0</formula>
+    <cfRule type="notContainsBlanks" dxfId="33" priority="2">
+      <formula>LEN(TRIM(B8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1895,7 +1805,7 @@
   <sheetData>
     <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1945,40 +1855,40 @@
   </sheetData>
   <sheetProtection sheet="1" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A8:A1048576 A2:A6">
-    <cfRule type="beginsWith" dxfId="37" priority="6" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="32" priority="6" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A2,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="36" priority="7" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="31" priority="7" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A2,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="35" priority="8" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="8" stopIfTrue="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B1048576 B2:B6">
-    <cfRule type="expression" dxfId="34" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="9" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="33" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="10">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="beginsWith" dxfId="32" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="27" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="31" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="26" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="30" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="29" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="28" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1989,10 +1899,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AAA12"/>
+  <dimension ref="A1:AAA11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -2005,68 +1915,68 @@
   <sheetData>
     <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:703">
-      <c r="A2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="HA2" s="7"/>
       <c r="AAA2" s="7"/>
     </row>
     <row r="3" spans="1:703">
       <c r="A3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="HA3" s="7"/>
       <c r="AAA3" s="7"/>
     </row>
     <row r="4" spans="1:703">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="HA4" s="7"/>
-      <c r="AAA4" s="7"/>
+      <c r="HA4" s="4"/>
+      <c r="AAA4" s="5"/>
     </row>
     <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="8" t="s">
         <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
     <row r="6" spans="1:703">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
     <row r="7" spans="1:703">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
@@ -2076,7 +1986,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
@@ -2096,78 +2006,49 @@
         <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="HA10" s="4"/>
       <c r="AAA10" s="5"/>
     </row>
     <row r="11" spans="1:703">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="HA11" s="4"/>
-      <c r="AAA11" s="5"/>
-    </row>
-    <row r="12" spans="1:703">
-      <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
-  <conditionalFormatting sqref="A4:A1048576 A1">
-    <cfRule type="beginsWith" dxfId="27" priority="9" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+  <conditionalFormatting sqref="A3:A1048576 A1">
+    <cfRule type="beginsWith" dxfId="22" priority="9" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="26" priority="10" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="21" priority="10" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="25" priority="11" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="11" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4 B1 B6:B1048576">
-    <cfRule type="expression" dxfId="24" priority="12" stopIfTrue="1">
+  <conditionalFormatting sqref="B3 B1 B5:B1048576">
+    <cfRule type="expression" dxfId="19" priority="12" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="23" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="13">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="beginsWith" dxfId="22" priority="4" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="17" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A2,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="21" priority="5" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="16" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A2,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="20" priority="6" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="19" priority="7" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="18" priority="8">
-      <formula>LEN(TRIM(B2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="beginsWith" dxfId="17" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
-      <formula>LEFT(A3,LEN("sentry.scope."))="sentry.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
-      <formula>LEFT(A3,LEN("sentry."))="sentry."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="15" priority="3" stopIfTrue="1">
-      <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2177,10 +2058,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4856438C-31A9-FD4A-9B2B-351DADFC8473}">
-  <dimension ref="A1:AAA11"/>
+  <dimension ref="A1:AAA9"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -2193,102 +2074,84 @@
   <sheetData>
     <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="HA1" s="7"/>
+      <c r="AAA1" s="7"/>
     </row>
     <row r="2" spans="1:703">
-      <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
+      <c r="A2" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="HA2" s="7"/>
       <c r="AAA2" s="7"/>
     </row>
     <row r="3" spans="1:703">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="HA3" s="4"/>
+      <c r="AAA3" s="5"/>
+    </row>
+    <row r="4" spans="1:703">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="HA3" s="7"/>
-      <c r="AAA3" s="7"/>
-    </row>
-    <row r="4" spans="1:703">
-      <c r="A4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="HA4" s="7"/>
-      <c r="AAA4" s="7"/>
+      <c r="HA4" s="4"/>
+      <c r="AAA4" s="5"/>
     </row>
     <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
     <row r="6" spans="1:703">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
     <row r="7" spans="1:703">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
     </row>
     <row r="8" spans="1:703">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
     <row r="9" spans="1:703">
-      <c r="A9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
-    </row>
-    <row r="10" spans="1:703">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="HA10" s="4"/>
-      <c r="AAA10" s="5"/>
-    </row>
-    <row r="11" spans="1:703">
-      <c r="HA11" s="4"/>
-      <c r="AAA11" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
@@ -2318,10 +2181,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD25EFE1-04CC-A449-AAE0-0807648F1AB2}">
-  <dimension ref="A1:AAA10"/>
+  <dimension ref="A1:AAA9"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -2334,94 +2197,84 @@
   <sheetData>
     <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HA1" s="7"/>
       <c r="AAA1" s="7"/>
     </row>
     <row r="2" spans="1:703">
-      <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
+      <c r="A2" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="HA2" s="7"/>
       <c r="AAA2" s="7"/>
     </row>
     <row r="3" spans="1:703">
-      <c r="A3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="HA3" s="7"/>
-      <c r="AAA3" s="7"/>
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="HA3" s="4"/>
+      <c r="AAA3" s="5"/>
     </row>
     <row r="4" spans="1:703">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
     </row>
     <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
     <row r="6" spans="1:703">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
     <row r="7" spans="1:703">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
     </row>
     <row r="8" spans="1:703">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
     <row r="9" spans="1:703">
-      <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
-    </row>
-    <row r="10" spans="1:703">
-      <c r="HA10" s="4"/>
-      <c r="AAA10" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
@@ -2453,8 +2306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245CE3E3-6AD2-7B46-9205-5D48456750E8}">
   <dimension ref="A1:AAA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -2467,80 +2320,80 @@
   <sheetData>
     <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="HA1" s="7"/>
       <c r="AAA1" s="7"/>
     </row>
     <row r="2" spans="1:703">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HA2" s="7"/>
       <c r="AAA2" s="7"/>
     </row>
     <row r="3" spans="1:703">
       <c r="A3" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="HA3" s="7"/>
       <c r="AAA3" s="7"/>
     </row>
     <row r="4" spans="1:703">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
     </row>
     <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
     <row r="6" spans="1:703">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
     <row r="7" spans="1:703">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
     </row>
     <row r="8" spans="1:703">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
@@ -2556,21 +2409,21 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="4" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="3" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
